--- a/data/metadata/public_datasets_metadata.xlsx
+++ b/data/metadata/public_datasets_metadata.xlsx
@@ -59,7 +59,7 @@
 	-Lauren Erdman
 Yeah, I think for our purposes/analyses, public and research data is the same
 1 total reaction
-Lauren Erdman reacted with 👍 at 2024-12-20 13:17 PM
+Lauren Erdman reacted with 👍 at 2024-12-20 21:17 PM
 	-Stanley Hua</t>
       </text>
     </comment>
